--- a/Special/2016-08-29 Average Speed at every crossing.xlsx
+++ b/Special/2016-08-29 Average Speed at every crossing.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="1" r:id="rId1"/>
-    <sheet name="Raw Script Output" sheetId="2" r:id="rId2"/>
-    <sheet name="Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw Script Output 30 days" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw Script Output 14 days" sheetId="4" r:id="rId3"/>
+    <sheet name="Results" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="50">
   <si>
     <t>BEGINLATITUDE</t>
   </si>
@@ -182,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,11 +213,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -305,9 +301,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
@@ -609,7 +605,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G3" sqref="G3:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -677,19 +673,19 @@
       </c>
       <c r="D3" s="4">
         <f ca="1">E3-D$2</f>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E3" s="4">
         <f ca="1">NOW()</f>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F3" s="5" t="str">
         <f ca="1">"AnalyzeCrossingSpeeds.py --lat "&amp;$B3&amp;" --lon "&amp;$C3&amp;" --distance 100m"&amp;" --direction "&amp;F$2&amp;" --startdatetime "&amp;TEXT($D3,"yyyy-mm-ddThh:mm:ss")&amp;" --enddatetime "&amp;TEXT($E3,"yyyy-mm-ddThh:mm:ss")&amp;" --xingname """&amp;$A3&amp;""" &gt;&gt; results.txt"</f>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.770164 --lon -104.97441 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "38th &amp; Blake Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.770164 --lon -104.97441 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "38th &amp; Blake Station" &gt;&gt; results.txt</v>
       </c>
       <c r="G3" s="5" t="str">
         <f ca="1">"AnalyzeCrossingSpeeds.py --lat "&amp;$B3&amp;" --lon "&amp;$C3&amp;" --distance 100m"&amp;" --direction "&amp;G$2&amp;" --startdatetime "&amp;TEXT($D3,"yyyy-mm-ddThh:mm:ss")&amp;" --enddatetime "&amp;TEXT($E3,"yyyy-mm-ddThh:mm:ss")&amp;" --xingname """&amp;$A3&amp;""" &gt;&gt; results.txt"</f>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.770164 --lon -104.97441 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "38th &amp; Blake Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.770164 --lon -104.97441 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "38th &amp; Blake Station" &gt;&gt; results.txt</v>
       </c>
       <c r="H3" s="12">
         <v>9.6476190476199992</v>
@@ -710,19 +706,19 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D20" ca="1" si="0">E4-D$2</f>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E20" ca="1" si="1">NOW()</f>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" ref="F4:G20" ca="1" si="2">"AnalyzeCrossingSpeeds.py --lat "&amp;$B4&amp;" --lon "&amp;$C4&amp;" --distance 100m"&amp;" --direction "&amp;F$2&amp;" --startdatetime "&amp;TEXT($D4,"yyyy-mm-ddThh:mm:ss")&amp;" --enddatetime "&amp;TEXT($E4,"yyyy-mm-ddThh:mm:ss")&amp;" --xingname """&amp;$A4&amp;""" &gt;&gt; results.txt"</f>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.769006 --lon -104.787632 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "40th and Airport Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.769006 --lon -104.787632 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "40th and Airport Station" &gt;&gt; results.txt</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.769006 --lon -104.787632 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "40th and Airport Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.769006 --lon -104.787632 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "40th and Airport Station" &gt;&gt; results.txt</v>
       </c>
       <c r="H4" s="12">
         <v>24.347999999999999</v>
@@ -743,19 +739,19 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.806182 --lon -104.783968 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "61st &amp; Pena Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.806182 --lon -104.783968 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "61st &amp; Pena Station" &gt;&gt; results.txt</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.806182 --lon -104.783968 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "61st &amp; Pena Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.806182 --lon -104.783968 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "61st &amp; Pena Station" &gt;&gt; results.txt</v>
       </c>
       <c r="H5" s="12">
         <v>12.4458598726</v>
@@ -776,19 +772,19 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.770697 --lon -104.892574 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Central Park Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.770697 --lon -104.892574 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Central Park Station" &gt;&gt; results.txt</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.770697 --lon -104.892574 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Central Park Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.770697 --lon -104.892574 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Central Park Station" &gt;&gt; results.txt</v>
       </c>
       <c r="H6" s="12">
         <v>19.670000000000002</v>
@@ -809,19 +805,19 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.759795 --lon -104.810534 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Chambers Road" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.759795 --lon -104.810534 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Chambers Road" &gt;&gt; results.txt</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.759795 --lon -104.810534 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Chambers Road" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.759795 --lon -104.810534 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Chambers Road" &gt;&gt; results.txt</v>
       </c>
       <c r="H7" s="12">
         <v>35.142857142899999</v>
@@ -842,19 +838,19 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.775459 --lon -104.954444 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Clayton Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.775459 --lon -104.954444 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Clayton Street" &gt;&gt; results.txt</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.775459 --lon -104.954444 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Clayton Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.775459 --lon -104.954444 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Clayton Street" &gt;&gt; results.txt</v>
       </c>
       <c r="H8" s="12">
         <v>18.8484848485</v>
@@ -875,19 +871,19 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.775987 --lon -104.943517 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Colorado Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.775987 --lon -104.943517 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Colorado Station" &gt;&gt; results.txt</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.775987 --lon -104.943517 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Colorado Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.775987 --lon -104.943517 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Colorado Station" &gt;&gt; results.txt</v>
       </c>
       <c r="H9" s="12">
         <v>22.981999999999999</v>
@@ -908,19 +904,19 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.776047 --lon -104.932056 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Dahlia Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.776047 --lon -104.932056 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Dahlia Street" &gt;&gt; results.txt</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.776047 --lon -104.932056 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Dahlia Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.776047 --lon -104.932056 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Dahlia Street" &gt;&gt; results.txt</v>
       </c>
       <c r="H10" s="12">
         <v>59.043999999999997</v>
@@ -941,19 +937,19 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.768714 --lon -104.866068 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Havana Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.768714 --lon -104.866068 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Havana Street" &gt;&gt; results.txt</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.768714 --lon -104.866068 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Havana Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.768714 --lon -104.866068 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Havana Street" &gt;&gt; results.txt</v>
       </c>
       <c r="H11" s="12">
         <v>39.909090909100001</v>
@@ -974,19 +970,19 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.774743 --lon -104.922603 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Holly Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.774743 --lon -104.922603 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Holly Street" &gt;&gt; results.txt</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.774743 --lon -104.922603 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Holly Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.774743 --lon -104.922603 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Holly Street" &gt;&gt; results.txt</v>
       </c>
       <c r="H12" s="12">
         <v>56.956521739099998</v>
@@ -1007,19 +1003,19 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.773375 --lon -104.913099 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Monaco Parkway" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.773375 --lon -104.913099 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Monaco Parkway" &gt;&gt; results.txt</v>
       </c>
       <c r="G13" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.773375 --lon -104.913099 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Monaco Parkway" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.773375 --lon -104.913099 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Monaco Parkway" &gt;&gt; results.txt</v>
       </c>
       <c r="H13" s="12">
         <v>51.482758620699997</v>
@@ -1040,19 +1036,19 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.771928 --lon -104.902617 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "NB Quebec Parkway" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.771928 --lon -104.902617 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "NB Quebec Parkway" &gt;&gt; results.txt</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.771928 --lon -104.902617 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "NB Quebec Parkway" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.771928 --lon -104.902617 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "NB Quebec Parkway" &gt;&gt; results.txt</v>
       </c>
       <c r="H14" s="12">
         <v>32.344262295100002</v>
@@ -1073,19 +1069,19 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.767613 --lon -104.851337 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Peoria Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.767613 --lon -104.851337 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Peoria Station" &gt;&gt; results.txt</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.767613 --lon -104.851337 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Peoria Station" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.767613 --lon -104.851337 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Peoria Station" &gt;&gt; results.txt</v>
       </c>
       <c r="H15" s="12">
         <v>12.7184466019</v>
@@ -1106,19 +1102,19 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.762217 --lon -104.819609 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Sable Boulevard" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.762217 --lon -104.819609 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Sable Boulevard" &gt;&gt; results.txt</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.762217 --lon -104.819609 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Sable Boulevard" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.762217 --lon -104.819609 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Sable Boulevard" &gt;&gt; results.txt</v>
       </c>
       <c r="H16" s="12">
         <v>63.735999999999997</v>
@@ -1139,19 +1135,19 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.772087 --lon -104.903761 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "SB Quebec Parkway" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.772087 --lon -104.903761 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "SB Quebec Parkway" &gt;&gt; results.txt</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.772087 --lon -104.903761 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "SB Quebec Parkway" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.772087 --lon -104.903761 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "SB Quebec Parkway" &gt;&gt; results.txt</v>
       </c>
       <c r="H17" s="12">
         <v>39.844000000000001</v>
@@ -1172,19 +1168,19 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.77569 --lon -104.950092 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "STEELE ST" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.77569 --lon -104.950092 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "STEELE ST" &gt;&gt; results.txt</v>
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.77569 --lon -104.950092 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "STEELE ST" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.77569 --lon -104.950092 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "STEELE ST" &gt;&gt; results.txt</v>
       </c>
       <c r="H18" s="12">
         <v>22.3529411765</v>
@@ -1205,19 +1201,19 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.770839 --lon -104.894503 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Ulster Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.770839 --lon -104.894503 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Ulster Street" &gt;&gt; results.txt</v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.770839 --lon -104.894503 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "Ulster Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.770839 --lon -104.894503 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "Ulster Street" &gt;&gt; results.txt</v>
       </c>
       <c r="H19" s="12">
         <v>26.043596730200001</v>
@@ -1238,19 +1234,19 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42581.588531828704</v>
+        <v>42598.527280208335</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.588531828704</v>
+        <v>42612.527280208335</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.772965 --lon -104.959746 --distance 100m --direction DEC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "York &amp; Josephine Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.772965 --lon -104.959746 --distance 100m --direction DEC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "York &amp; Josephine Street" &gt;&gt; results.txt</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AnalyzeCrossingSpeeds.py --lat 39.772965 --lon -104.959746 --distance 100m --direction INC --startdatetime 2016-07-30T14:07:29 --enddatetime 2016-08-29T14:07:29 --xingname "York &amp; Josephine Street" &gt;&gt; results.txt</v>
+        <v>AnalyzeCrossingSpeeds.py --lat 39.772965 --lon -104.959746 --distance 100m --direction INC --startdatetime 2016-08-16T12:39:17 --enddatetime 2016-08-30T12:39:17 --xingname "York &amp; Josephine Street" &gt;&gt; results.txt</v>
       </c>
       <c r="H20" s="12">
         <v>19.862068965500001</v>
@@ -1270,11 +1266,13 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -2005,6 +2003,741 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="15">
+        <v>9.6949152542399997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="15">
+        <v>24.213999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="15">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="15">
+        <v>18.797999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="15">
+        <v>42.857142857100001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="15">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="15">
+        <v>21.015999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="15">
+        <v>56.923999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15">
+        <v>47.2307692308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="15">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="15">
+        <v>31.470588235299999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="15">
+        <v>12.1224489796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="15">
+        <v>57.027999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="15">
+        <v>39.555999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15">
+        <v>22.71875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="15">
+        <v>26.635359116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="15">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="15">
+        <v>24.7692307692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="15">
+        <v>37.902000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="15">
+        <v>24.1904761905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="15">
+        <v>22.135999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="15">
+        <v>65.908000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="15">
+        <v>16.024999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="15">
+        <v>22.033999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="15">
+        <v>33.052631578899998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="15">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="15">
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="15">
+        <v>46.288461538500002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="15">
+        <v>44.015151515200003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="15">
+        <v>23.818181818199999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="15">
+        <v>66.213999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="15">
+        <v>43.402266289000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="15">
+        <v>26.294117647099998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="15">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="15">
+        <v>12.8888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
